--- a/excelFiles/Current-Stock-Report.xlsx
+++ b/excelFiles/Current-Stock-Report.xlsx
@@ -359,28 +359,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>içim helva</v>
+        <v>ALTUN ESMER SEKER 500 GR</v>
       </c>
       <c r="C2" t="str">
-        <v>temel gıda</v>
+        <v>Diger</v>
       </c>
       <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>350</v>
+      </c>
+      <c r="I2">
         <v>100</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>400</v>
-      </c>
-      <c r="H2">
-        <v>600</v>
-      </c>
-      <c r="I2">
-        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -388,23 +388,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>0,5 İŞLİK</v>
-      </c>
-      <c r="C3" t="str"/>
+        <v>OFCAY ZEVKıNE 500GR.</v>
+      </c>
+      <c r="C3" t="str">
+        <v>temel gıda</v>
+      </c>
       <c r="D3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -415,28 +417,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>margarin</v>
+        <v>ÜLKER ÇİKOLATALI GOFRET</v>
       </c>
       <c r="C4" t="str">
-        <v>temel gıda</v>
+        <v>şekerleme</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -444,28 +446,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>ülker çikolatalı gofret</v>
+        <v>1,5lt BAYKAL SU</v>
       </c>
       <c r="C5" t="str">
-        <v>şekerleme</v>
+        <v>Diger</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="I5">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -473,28 +475,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>süt</v>
+        <v>ADADERYA TEREYAĞ 1KG</v>
       </c>
       <c r="C6" t="str">
-        <v>temel gıda</v>
+        <v>Diger</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -502,28 +504,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>puding</v>
+        <v>A.MAGNUM 110ML*20 DOUBLE ÇİKOLATA</v>
       </c>
       <c r="C7" t="str">
-        <v>temel gıda</v>
+        <v>Diger</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -531,26 +533,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>1,500ML FELIX</v>
-      </c>
-      <c r="C8" t="str"/>
+        <v>10 LU SAKIZ FRUTSI</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Diger</v>
+      </c>
       <c r="D8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -560,24 +564,26 @@
       <c r="B9" t="str">
         <v>1,250g İÇİM YOGURT</v>
       </c>
-      <c r="C9" t="str"/>
+      <c r="C9" t="str">
+        <v>Diger</v>
+      </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -585,26 +591,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>1,5lt BAYKAL SU</v>
-      </c>
-      <c r="C10" t="str"/>
+        <v>4U KOLA 250 ML</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Diger</v>
+      </c>
       <c r="D10">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -612,53 +620,113 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>0/7 FABER UÇLU KALEM</v>
-      </c>
-      <c r="C11" t="str"/>
+        <v>ALGIDA CORNETTO 120 ML CIKOLATA</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Diger</v>
+      </c>
       <c r="D11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>AKMINA SODA</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Diger</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.75</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1KG DERYA KAŞAR</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Diger</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
         <v>Total</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B14" t="str">
         <v>Total</v>
       </c>
-      <c r="C12" t="str"/>
-      <c r="D12">
-        <v>306</v>
-      </c>
-      <c r="E12">
-        <v>13.75</v>
-      </c>
-      <c r="F12">
-        <v>25.5</v>
-      </c>
-      <c r="G12">
-        <v>477.5</v>
-      </c>
-      <c r="H12">
-        <v>747</v>
-      </c>
-      <c r="I12">
-        <v>269.5</v>
+      <c r="C14" t="str"/>
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <v>36.25</v>
+      </c>
+      <c r="F14">
+        <v>51.75</v>
+      </c>
+      <c r="G14">
+        <v>1415</v>
+      </c>
+      <c r="H14">
+        <v>2030</v>
+      </c>
+      <c r="I14">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
